--- a/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 6-2024.xlsx
+++ b/report_ca_nhan/NV-6 Lâm Thị Mỹ Hằng 6-2024.xlsx
@@ -8,12 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn 1 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Đơn 2 bác sĩ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Đơn thu nợ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -419,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:V32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,6 +525,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -608,6 +615,12 @@
       <c r="T2" t="n">
         <v/>
       </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -688,6 +701,12 @@
       <c r="T3" t="n">
         <v/>
       </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -766,6 +785,12 @@
       <c r="T4" t="n">
         <v/>
       </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -844,6 +869,12 @@
       <c r="T5" t="n">
         <v/>
       </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -922,6 +953,12 @@
       <c r="T6" t="n">
         <v/>
       </c>
+      <c r="U6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -998,6 +1035,12 @@
       <c r="T7" t="n">
         <v/>
       </c>
+      <c r="U7" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1078,6 +1121,12 @@
       <c r="T8" t="n">
         <v/>
       </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1158,6 +1207,12 @@
       <c r="T9" t="n">
         <v/>
       </c>
+      <c r="U9" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1236,6 +1291,12 @@
       <c r="T10" t="n">
         <v/>
       </c>
+      <c r="U10" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1316,6 +1377,12 @@
       <c r="T11" t="n">
         <v/>
       </c>
+      <c r="U11" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1394,6 +1461,12 @@
       <c r="T12" t="n">
         <v/>
       </c>
+      <c r="U12" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1474,6 +1547,12 @@
       <c r="T13" t="n">
         <v/>
       </c>
+      <c r="U13" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1554,6 +1633,12 @@
       <c r="T14" t="n">
         <v/>
       </c>
+      <c r="U14" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1634,6 +1719,12 @@
       <c r="T15" t="n">
         <v/>
       </c>
+      <c r="U15" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1714,6 +1805,12 @@
       <c r="T16" t="n">
         <v/>
       </c>
+      <c r="U16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1796,6 +1893,12 @@
           <t xml:space="preserve">Kha Như Huỳnh </t>
         </is>
       </c>
+      <c r="U17" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1878,6 +1981,12 @@
       <c r="T18" t="n">
         <v/>
       </c>
+      <c r="U18" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V18" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1958,6 +2067,12 @@
       <c r="T19" t="n">
         <v/>
       </c>
+      <c r="U19" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2038,6 +2153,12 @@
       <c r="T20" t="n">
         <v/>
       </c>
+      <c r="U20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2118,6 +2239,12 @@
       <c r="T21" t="n">
         <v/>
       </c>
+      <c r="U21" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2198,6 +2325,12 @@
       <c r="T22" t="n">
         <v/>
       </c>
+      <c r="U22" t="n">
+        <v/>
+      </c>
+      <c r="V22" t="n">
+        <v/>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2276,6 +2409,12 @@
       <c r="T23" t="n">
         <v/>
       </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2356,6 +2495,12 @@
       <c r="T24" t="n">
         <v/>
       </c>
+      <c r="U24" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V24" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2438,6 +2583,12 @@
           <t>Lâm Hoàng Phú</t>
         </is>
       </c>
+      <c r="U25" t="n">
+        <v/>
+      </c>
+      <c r="V25" t="n">
+        <v/>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2520,6 +2671,12 @@
           <t>Nguyễn Hoàng Yến Quyên</t>
         </is>
       </c>
+      <c r="U26" t="n">
+        <v>200000</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2602,6 +2759,12 @@
       <c r="T27" t="n">
         <v/>
       </c>
+      <c r="U27" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V27" t="n">
+        <v>100000</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2682,6 +2845,12 @@
       <c r="T28" t="n">
         <v/>
       </c>
+      <c r="U28" t="n">
+        <v/>
+      </c>
+      <c r="V28" t="n">
+        <v/>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2762,6 +2931,12 @@
       <c r="T29" t="n">
         <v/>
       </c>
+      <c r="U29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V29" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2842,6 +3017,12 @@
       <c r="T30" t="n">
         <v/>
       </c>
+      <c r="U30" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V30" t="n">
+        <v>50000</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2921,6 +3102,60 @@
       </c>
       <c r="T31" t="n">
         <v/>
+      </c>
+      <c r="U31" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>425250000</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>425250000</v>
+      </c>
+      <c r="M32" t="n">
+        <v>406650000</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="O32" t="n">
+        <v>409650000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>15600000</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="V32" t="n">
+        <v>800000</v>
       </c>
     </row>
   </sheetData>
@@ -2934,7 +3169,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3042,6 +3277,1866 @@
         <is>
           <t>Phụ phẫu 2</t>
         </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>328</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Em</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng cung chân mày</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v/>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v/>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>329</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Em</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v/>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v/>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>332</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Huỳnh Thị Kim Minh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v/>
+      </c>
+      <c r="L4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v/>
+      </c>
+      <c r="S4" t="n">
+        <v/>
+      </c>
+      <c r="T4" t="n">
+        <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>333</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Trúc Giang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v/>
+      </c>
+      <c r="L5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v/>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>335</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-04-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trần Thị Cẩm Hồng</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v/>
+      </c>
+      <c r="L6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v/>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v/>
+      </c>
+      <c r="U6" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>341</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ngô Thị Bé</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Mở góc mắt</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v/>
+      </c>
+      <c r="L7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v/>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v/>
+      </c>
+      <c r="U7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>342</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>06-05-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ngô Thị Bé</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v/>
+      </c>
+      <c r="L8" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v/>
+      </c>
+      <c r="S8" t="n">
+        <v/>
+      </c>
+      <c r="T8" t="n">
+        <v/>
+      </c>
+      <c r="U8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>353</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nguyễn Mộng Phàn</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v/>
+      </c>
+      <c r="L9" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>33000000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v/>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v/>
+      </c>
+      <c r="U9" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>354</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>06-06-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Lâm Nhật Thái</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v/>
+      </c>
+      <c r="L10" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>13000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v/>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v/>
+      </c>
+      <c r="U10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>362</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>06-07-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>sơn thị chuol</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v/>
+      </c>
+      <c r="L11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v/>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v/>
+      </c>
+      <c r="U11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V11" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>368</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>06-08-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Trần Thị Phượng Hằng</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v/>
+      </c>
+      <c r="L12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v/>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v/>
+      </c>
+      <c r="U12" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V12" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>372</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>06-09-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Ngô Thị Cẩm Phương</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v/>
+      </c>
+      <c r="L13" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v/>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v/>
+      </c>
+      <c r="U13" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V13" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>376</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>06-09-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v/>
+      </c>
+      <c r="L14" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v/>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v/>
+      </c>
+      <c r="U14" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V14" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>383</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>06-11-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Huyền Thanh</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v/>
+      </c>
+      <c r="L15" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>30000000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v/>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v/>
+      </c>
+      <c r="U15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V15" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>387</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>huỳnh thị tài linh</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v/>
+      </c>
+      <c r="L16" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="M16" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v/>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v/>
+      </c>
+      <c r="U16" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V16" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>388</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>06-12-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>huỳnh thị tài linh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>cắt mí</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v/>
+      </c>
+      <c r="L17" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v/>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v/>
+      </c>
+      <c r="U17" t="n">
+        <v/>
+      </c>
+      <c r="V17" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>395</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>06-14-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Phạm thị duyên</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>cắt mí</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Nguyễn Phúc Nam</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v/>
+      </c>
+      <c r="L18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v/>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Đào Vương Anh</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v/>
+      </c>
+      <c r="U18" t="n">
+        <v/>
+      </c>
+      <c r="V18" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>435</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>06-17-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lê Thị Oanh</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v/>
+      </c>
+      <c r="L19" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v/>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v/>
+      </c>
+      <c r="U19" t="n">
+        <v/>
+      </c>
+      <c r="V19" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>446</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>06-20-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>đào thạch kim chi</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>30500000</v>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v/>
+      </c>
+      <c r="L20" t="n">
+        <v>30500000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>30500000</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>30500000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v/>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v/>
+      </c>
+      <c r="U20" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V20" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>502</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn hồng tơ </t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v/>
+      </c>
+      <c r="L21" t="n">
+        <v>8450000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>2850000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5600000</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v/>
+      </c>
+      <c r="S21" t="n">
+        <v/>
+      </c>
+      <c r="T21" t="n">
+        <v/>
+      </c>
+      <c r="U21" t="n">
+        <v>50000</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>503</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>06-30-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">lý thị thuý hằng </t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v/>
+      </c>
+      <c r="L22" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v/>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v/>
+      </c>
+      <c r="U22" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V22" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>372950000</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>372950000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>348350000</v>
+      </c>
+      <c r="N23" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="O23" t="n">
+        <v>362350000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10600000</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="n">
+        <v>1750000</v>
+      </c>
+      <c r="V23" t="n">
+        <v>850000</v>
       </c>
     </row>
   </sheetData>
@@ -3055,7 +5150,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3164,6 +5259,16 @@
           <t>Phụ phẫu 2</t>
         </is>
       </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -3172,11 +5277,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>328</v>
+        <v>379</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>06-10-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -3186,7 +5291,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t xml:space="preserve">Trần Ngọc Huyền </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -3196,7 +5301,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nâng cung chân mày</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -3205,7 +5310,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>6000000</v>
+        <v>30000000</v>
       </c>
       <c r="J2" t="n">
         <v/>
@@ -3214,16 +5319,16 @@
         <v/>
       </c>
       <c r="L2" t="n">
-        <v>6000000</v>
+        <v>30000000</v>
       </c>
       <c r="M2" t="n">
-        <v>6000000</v>
+        <v>30000000</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6000000</v>
+        <v>30000000</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -3233,16 +5338,24 @@
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R2" t="n">
-        <v/>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
+          <t>Lâm Hoàng Phú</t>
         </is>
       </c>
       <c r="T2" t="n">
         <v/>
+      </c>
+      <c r="U2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V2" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="3">
@@ -3252,40 +5365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>329</v>
+        <v>389</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>06-12-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Em</t>
+          <t>lâm thanh trúc</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
+          <t>CTV Ngoài</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>6000000</v>
+        <v>25000000</v>
       </c>
       <c r="J3" t="n">
         <v/>
@@ -3294,27 +5407,29 @@
         <v/>
       </c>
       <c r="L3" t="n">
-        <v>6000000</v>
+        <v>25000000</v>
       </c>
       <c r="M3" t="n">
-        <v>6000000</v>
+        <v>25000000</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6000000</v>
+        <v>25000000</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R3" t="n">
-        <v/>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -3323,6 +5438,12 @@
       </c>
       <c r="T3" t="n">
         <v/>
+      </c>
+      <c r="U3" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V3" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="4">
@@ -3332,11 +5453,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>332</v>
+        <v>434</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>06-17-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -3346,7 +5467,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Huỳnh Thị Kim Minh</t>
+          <t>Lê Thị Oanh</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -3356,7 +5477,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Tiêm Filler</t>
+          <t>Nâng Mũi Dựng Trụ</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -3365,7 +5486,7 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>6000000</v>
+        <v>45000000</v>
       </c>
       <c r="J4" t="n">
         <v/>
@@ -3374,16 +5495,16 @@
         <v/>
       </c>
       <c r="L4" t="n">
-        <v>6000000</v>
+        <v>45000000</v>
       </c>
       <c r="M4" t="n">
-        <v>6000000</v>
+        <v>45000000</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6000000</v>
+        <v>45000000</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -3393,14 +5514,24 @@
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R4" t="n">
-        <v/>
-      </c>
-      <c r="S4" t="n">
-        <v/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Nguyễn Hoàng Yến Quyên</t>
+        </is>
       </c>
       <c r="T4" t="n">
         <v/>
+      </c>
+      <c r="U4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V4" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="5">
@@ -3410,11 +5541,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333</v>
+        <v>436</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>06-17-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -3424,7 +5555,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Trúc Giang</t>
+          <t>Trương Thị Thuỷ Tiên</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -3439,11 +5570,11 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Lê Đình Hậu</t>
+          <t>Lê Hoàng Thanh</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="J5" t="n">
         <v/>
@@ -3452,16 +5583,16 @@
         <v/>
       </c>
       <c r="L5" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="M5" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>35000000</v>
+        <v>30000000</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -3471,8 +5602,10 @@
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -3481,6 +5614,12 @@
       </c>
       <c r="T5" t="n">
         <v/>
+      </c>
+      <c r="U5" t="n">
+        <v>150000</v>
+      </c>
+      <c r="V5" t="n">
+        <v>100000</v>
       </c>
     </row>
     <row r="6">
@@ -3490,21 +5629,21 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335</v>
+        <v>482</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06-04-2024</t>
+          <t>06-28-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>SÓC TRĂNG</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t xml:space="preserve">nguyễn thị bích tuyền </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -3514,7 +5653,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
+          <t>Nâng mũi</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -3523,7 +5662,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>20000000</v>
+        <v>32000000</v>
       </c>
       <c r="J6" t="n">
         <v/>
@@ -3532,1313 +5671,93 @@
         <v/>
       </c>
       <c r="L6" t="n">
-        <v>20000000</v>
+        <v>32000000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000000</v>
+        <v>32000000</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>15000000</v>
+        <v>32000000</v>
       </c>
       <c r="P6" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
-      <c r="R6" t="n">
-        <v/>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T6" t="n">
-        <v/>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Trần Khánh Hiệp</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>100000</v>
+      </c>
+      <c r="V6" t="n">
+        <v>50000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>341</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Ngô Thị Bé</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Mở góc mắt</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v/>
-      </c>
+        <v>162000000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5000000</v>
+        <v>162000000</v>
       </c>
       <c r="M7" t="n">
-        <v>5000000</v>
+        <v>162000000</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>5000000</v>
+        <v>162000000</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v/>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T7" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>342</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Ngô Thị Bé</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J8" t="n">
-        <v/>
-      </c>
-      <c r="K8" t="n">
-        <v/>
-      </c>
-      <c r="L8" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M8" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
-        <v/>
-      </c>
-      <c r="S8" t="n">
-        <v/>
-      </c>
-      <c r="T8" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>353</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>06-06-2024</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Nguyễn Mộng Phàn</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>33000000</v>
-      </c>
-      <c r="J9" t="n">
-        <v/>
-      </c>
-      <c r="K9" t="n">
-        <v/>
-      </c>
-      <c r="L9" t="n">
-        <v>33000000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>33000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>33000000</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
-        <v/>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>354</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>06-06-2024</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Lâm Nhật Thái</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Lê Hoàng Thanh</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="J10" t="n">
-        <v/>
-      </c>
-      <c r="K10" t="n">
-        <v/>
-      </c>
-      <c r="L10" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>13000000</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
-        <v/>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>362</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>06-07-2024</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>sơn thị chuol</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="J11" t="n">
-        <v/>
-      </c>
-      <c r="K11" t="n">
-        <v/>
-      </c>
-      <c r="L11" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R11" t="n">
-        <v/>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>368</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>06-08-2024</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Trần Thị Phượng Hằng</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="J12" t="n">
-        <v/>
-      </c>
-      <c r="K12" t="n">
-        <v/>
-      </c>
-      <c r="L12" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R12" t="n">
-        <v/>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>372</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>06-09-2024</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Ngô Thị Cẩm Phương</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="J13" t="n">
-        <v/>
-      </c>
-      <c r="K13" t="n">
-        <v/>
-      </c>
-      <c r="L13" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="M13" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R13" t="n">
-        <v/>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>376</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>06-09-2024</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Lê Văn Linh</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="J14" t="n">
-        <v/>
-      </c>
-      <c r="K14" t="n">
-        <v/>
-      </c>
-      <c r="L14" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="O14" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R14" t="n">
-        <v/>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>383</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>06-11-2024</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Huyền Thanh</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="J15" t="n">
-        <v/>
-      </c>
-      <c r="K15" t="n">
-        <v/>
-      </c>
-      <c r="L15" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R15" t="n">
-        <v/>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>387</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>06-12-2024</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>huỳnh thị tài linh</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="J16" t="n">
-        <v/>
-      </c>
-      <c r="K16" t="n">
-        <v/>
-      </c>
-      <c r="L16" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="M16" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R16" t="n">
-        <v/>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T16" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>388</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>06-12-2024</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>huỳnh thị tài linh</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>cắt mí</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="J17" t="n">
-        <v/>
-      </c>
-      <c r="K17" t="n">
-        <v/>
-      </c>
-      <c r="L17" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R17" t="n">
-        <v/>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
-      </c>
-      <c r="T17" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>395</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>06-14-2024</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>LONG XUYÊN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Phạm thị duyên</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>cắt mí</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Nguyễn Phúc Nam</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="J18" t="n">
-        <v/>
-      </c>
-      <c r="K18" t="n">
-        <v/>
-      </c>
-      <c r="L18" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="M18" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R18" t="n">
-        <v/>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>Đào Vương Anh</t>
-        </is>
-      </c>
-      <c r="T18" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>435</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>06-17-2024</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Lê Thị Oanh</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="J19" t="n">
-        <v/>
-      </c>
-      <c r="K19" t="n">
-        <v/>
-      </c>
-      <c r="L19" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="M19" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R19" t="n">
-        <v/>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T19" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>446</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>06-20-2024</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>đào thạch kim chi</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>30500000</v>
-      </c>
-      <c r="J20" t="n">
-        <v/>
-      </c>
-      <c r="K20" t="n">
-        <v/>
-      </c>
-      <c r="L20" t="n">
-        <v>30500000</v>
-      </c>
-      <c r="M20" t="n">
-        <v>30500000</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>30500000</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R20" t="n">
-        <v/>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>502</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nguyễn hồng tơ </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>8450000</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="K21" t="n">
-        <v/>
-      </c>
-      <c r="L21" t="n">
-        <v>8450000</v>
-      </c>
-      <c r="M21" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2850000</v>
-      </c>
-      <c r="P21" t="n">
-        <v>5600000</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R21" t="n">
-        <v/>
-      </c>
-      <c r="S21" t="n">
-        <v/>
-      </c>
-      <c r="T21" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>503</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>06-30-2024</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">lý thị thuý hằng </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="J22" t="n">
-        <v/>
-      </c>
-      <c r="K22" t="n">
-        <v/>
-      </c>
-      <c r="L22" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R22" t="n">
-        <v/>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="n">
+        <v>650000</v>
+      </c>
+      <c r="V7" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -4852,7 +5771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4868,12 +5787,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã dịch vụ</t>
+          <t>Mã đơn thu nợ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Ngày thực hiện</t>
+          <t>Đơn nợ</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -4883,97 +5802,32 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Lượng thu</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
+          <t>Ngày thu</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379</v>
+        <v>57</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-10-2024</t>
+          <t>HD-LUXURY-198</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -4981,163 +5835,65 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Trần Ngọc Huyền </t>
-        </is>
+      <c r="E2" t="n">
+        <v>1000000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="J2" t="n">
-        <v/>
-      </c>
-      <c r="K2" t="n">
-        <v/>
-      </c>
-      <c r="L2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="M2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="T2" t="n">
-        <v/>
+          <t>06-05-2024</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>389</v>
+        <v>61</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06-12-2024</t>
+          <t>HD-LUXURY-145</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>lâm thanh trúc</t>
-        </is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>2500000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>CTV</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>CTV Ngoài</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="J3" t="n">
-        <v/>
-      </c>
-      <c r="K3" t="n">
-        <v/>
-      </c>
-      <c r="L3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25000000</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T3" t="n">
-        <v/>
+          <t>06-06-2024</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>434</v>
+        <v>69</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06-17-2024</t>
+          <t>HD-LUXURY-367</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -5145,81 +5901,32 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Lê Thị Oanh</t>
-        </is>
+      <c r="E4" t="n">
+        <v>500000</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v/>
-      </c>
-      <c r="K4" t="n">
-        <v/>
-      </c>
-      <c r="L4" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T4" t="n">
-        <v/>
+          <t>06-07-2024</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>TN</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>436</v>
+        <v>80</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06-17-2024</t>
+          <t>HD-LUXURY-369</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -5227,586 +5934,23 @@
           <t>CẦN THƠ</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Trương Thị Thuỷ Tiên</t>
-        </is>
+      <c r="E5" t="n">
+        <v>3000000</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>Lâm Thị Mỹ Hằng</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Lê Hoàng Thanh</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="J5" t="n">
-        <v/>
-      </c>
-      <c r="K5" t="n">
-        <v/>
-      </c>
-      <c r="L5" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>Nguyễn Hoàng Yến Quyên</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v/>
+          <t>06-13-2024</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>482</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>06-28-2024</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">nguyễn thị bích tuyền </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="J6" t="n">
-        <v/>
-      </c>
-      <c r="K6" t="n">
-        <v/>
-      </c>
-      <c r="L6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>32000000</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Trần Khánh Hiệp</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã dịch vụ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Ngày thực hiện</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Khách hàng</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Nguồn khách</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Tên dịch vụ</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Sale chính</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Đơn giá gốc</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Sale phụ</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Upsale</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Thanh toán lần đầu</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Trả sau</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Dư nợ</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 1</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Phụ phẫu 2</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Tiền tố</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Mã đơn thu nợ</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Đơn nợ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Cơ sở</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Lượng thu</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Sale</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Ngày thu</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>57</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-198</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>06-05-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>61</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-145</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>2500000</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>06-06-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>69</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-367</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>06-07-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>80</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-369</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>3000000</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>06-13-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
           <t>TN</t>
         </is>
       </c>
@@ -6034,6 +6178,23 @@
           <t>06-30-2024</t>
         </is>
       </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>29200000</v>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
